--- a/strategies/long_straddle/reports/real_report.xlsx
+++ b/strategies/long_straddle/reports/real_report.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+  <si>
+    <t>Stock symbol</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -258,11 +261,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -526,153 +532,159 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="7.25"/>
-    <col customWidth="1" min="3" max="3" width="8.13"/>
-    <col customWidth="1" min="4" max="4" width="9.0"/>
-    <col customWidth="1" min="11" max="11" width="9.13"/>
+    <col customWidth="1" min="3" max="3" width="7.25"/>
+    <col customWidth="1" min="4" max="4" width="8.13"/>
+    <col customWidth="1" min="5" max="5" width="9.0"/>
+    <col customWidth="1" min="12" max="12" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="J1" s="6"/>
       <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
       <c r="V1" s="11"/>
+      <c r="W1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="14" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="O2" s="4"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="15"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="9"/>
       <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="20" t="s">
+      <c r="J3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="20" t="s">
-        <v>14</v>
+      <c r="P3" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="Q3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="22" t="s">
         <v>19</v>
       </c>
       <c r="V3" s="22" t="s">
         <v>20</v>
       </c>
+      <c r="W3" s="23" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="14">
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="Q1:V2"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="R1:W2"/>
+    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
